--- a/documents/Novec Discharge Comparison with Experiments.xlsx
+++ b/documents/Novec Discharge Comparison with Experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PR_01" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1158,11 +1157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299084152"/>
-        <c:axId val="299084544"/>
+        <c:axId val="328036456"/>
+        <c:axId val="328039200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299084152"/>
+        <c:axId val="328036456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1215,7 +1214,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1282,12 +1280,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299084544"/>
+        <c:crossAx val="328039200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299084544"/>
+        <c:axId val="328039200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -1413,7 +1411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299084152"/>
+        <c:crossAx val="328036456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1543,7 +1541,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2285,11 +2282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299094736"/>
-        <c:axId val="301273704"/>
+        <c:axId val="146568808"/>
+        <c:axId val="327547040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299094736"/>
+        <c:axId val="146568808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2342,7 +2339,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2409,12 +2405,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301273704"/>
+        <c:crossAx val="327547040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301273704"/>
+        <c:axId val="327547040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -2541,7 +2537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299094736"/>
+        <c:crossAx val="146568808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2671,7 +2667,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3431,11 +3426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301274488"/>
-        <c:axId val="301274880"/>
+        <c:axId val="327547824"/>
+        <c:axId val="327548216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301274488"/>
+        <c:axId val="327547824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3488,7 +3483,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3555,12 +3549,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301274880"/>
+        <c:crossAx val="327548216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301274880"/>
+        <c:axId val="327548216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -3687,7 +3681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301274488"/>
+        <c:crossAx val="327547824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3817,7 +3811,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4463,11 +4456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299085328"/>
-        <c:axId val="299085720"/>
+        <c:axId val="328036848"/>
+        <c:axId val="328037240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299085328"/>
+        <c:axId val="328036848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4520,7 +4513,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4587,12 +4579,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299085720"/>
+        <c:crossAx val="328037240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299085720"/>
+        <c:axId val="328037240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -4718,7 +4710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299085328"/>
+        <c:crossAx val="328036848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5708,11 +5700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299086504"/>
-        <c:axId val="299086896"/>
+        <c:axId val="328040376"/>
+        <c:axId val="328042728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299086504"/>
+        <c:axId val="328040376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5832,12 +5824,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299086896"/>
+        <c:crossAx val="328042728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299086896"/>
+        <c:axId val="328042728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -5963,7 +5955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299086504"/>
+        <c:crossAx val="328040376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6073,13 +6065,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6087,13 +6093,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Comparison for T=68F, D=0.8kg/L, P=920.8psi </a:t>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Novec Discharge Container States Comparison</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1622301165142003"/>
+          <c:y val="3.844474098234156E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6106,13 +6124,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6637,7 +6669,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Williamson</c:v>
+            <c:v>Own Code</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -6769,15 +6801,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299087680"/>
-        <c:axId val="299088072"/>
+        <c:axId val="198652528"/>
+        <c:axId val="198654096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299087680"/>
+        <c:axId val="198652528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="-0.2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6815,12 +6847,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>Percent Outage</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US">
+                <a:endParaRPr lang="en-US" sz="1600">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
@@ -6878,7 +6910,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6893,12 +6925,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299088072"/>
+        <c:crossAx val="198654096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299088072"/>
+        <c:axId val="198654096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -6939,12 +6971,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>Container Pressure (psig)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US">
+                <a:endParaRPr lang="en-US" sz="1600">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
@@ -7009,7 +7041,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7024,7 +7056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299087680"/>
+        <c:crossAx val="198652528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7042,9 +7074,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2135792042968635"/>
-          <c:y val="0.56743474507449121"/>
-          <c:w val="0.12451595107061005"/>
+          <c:x val="0.11357919179842417"/>
+          <c:y val="0.56044479216861076"/>
+          <c:w val="0.19435722964094862"/>
           <c:h val="0.23591256174343739"/>
         </c:manualLayout>
       </c:layout>
@@ -7061,7 +7093,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7111,6 +7143,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -7154,7 +7187,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7866,11 +7898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299088856"/>
-        <c:axId val="299089248"/>
+        <c:axId val="198657232"/>
+        <c:axId val="241222520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299088856"/>
+        <c:axId val="198657232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7923,7 +7955,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7990,12 +8021,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299089248"/>
+        <c:crossAx val="241222520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299089248"/>
+        <c:axId val="241222520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -8122,7 +8153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299088856"/>
+        <c:crossAx val="198657232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9107,11 +9138,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299090032"/>
-        <c:axId val="299090424"/>
+        <c:axId val="241222912"/>
+        <c:axId val="241221344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299090032"/>
+        <c:axId val="241222912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9230,12 +9261,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299090424"/>
+        <c:crossAx val="241221344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299090424"/>
+        <c:axId val="241221344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -9362,7 +9393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299090032"/>
+        <c:crossAx val="241222912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9492,7 +9523,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10366,11 +10396,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299091208"/>
-        <c:axId val="299091600"/>
+        <c:axId val="200118840"/>
+        <c:axId val="200120800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299091208"/>
+        <c:axId val="200118840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10423,7 +10453,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10490,12 +10519,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299091600"/>
+        <c:crossAx val="200120800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299091600"/>
+        <c:axId val="200120800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -10622,7 +10651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299091208"/>
+        <c:crossAx val="200118840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10752,7 +10781,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11648,11 +11676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299092384"/>
-        <c:axId val="299092776"/>
+        <c:axId val="200118448"/>
+        <c:axId val="200120016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299092384"/>
+        <c:axId val="200118448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11705,7 +11733,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11772,12 +11799,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299092776"/>
+        <c:crossAx val="200120016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299092776"/>
+        <c:axId val="200120016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -11904,7 +11931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299092384"/>
+        <c:crossAx val="200118448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12034,7 +12061,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12620,11 +12646,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299093560"/>
-        <c:axId val="299093952"/>
+        <c:axId val="247093408"/>
+        <c:axId val="199313696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299093560"/>
+        <c:axId val="247093408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12677,7 +12703,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12744,12 +12769,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299093952"/>
+        <c:crossAx val="199313696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299093952"/>
+        <c:axId val="199313696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -12876,7 +12901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299093560"/>
+        <c:crossAx val="247093408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19506,6 +19531,49 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.55357</cdr:x>
+      <cdr:y>0.72346</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79643</cdr:x>
+      <cdr:y>0.80472</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4429124" y="2628900"/>
+          <a:ext cx="1943101" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>T=68F, D=0.8kg/L, P=920.8psi </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19542,7 +19610,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19643,43 +19711,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -19718,6 +19749,43 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20019,7 +20087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+    <sheetView topLeftCell="C28" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -22003,8 +22071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
